--- a/BBDD/GeneradorPersonas.xlsx
+++ b/BBDD/GeneradorPersonas.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserPersona" sheetId="1" r:id="rId1"/>
     <sheet name="Calculo" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculo (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
   <si>
     <t>Usuario</t>
   </si>
@@ -262,6 +263,15 @@
   </si>
   <si>
     <t>Insert Persona</t>
+  </si>
+  <si>
+    <t>RestoDiv</t>
+  </si>
+  <si>
+    <t>intentos</t>
+  </si>
+  <si>
+    <t>insert into resto_div(jugador,reto,fecha_hora,puntos,tiempo_partida,intentos) values</t>
   </si>
 </sst>
 </file>
@@ -331,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +697,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE("('",C2,"',md5(",D2,"),'",E2,"'),")</f>
+        <f t="shared" ref="A2:A13" si="0">CONCATENATE("('",C2,"',md5(",D2,"),'",E2,"'),")</f>
         <v>('Alumno1',md5(12345),'AliasAl1'),</v>
       </c>
       <c r="B2" t="str">
@@ -736,11 +747,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE("('",C3,"',md5(",D3,"),'",E3,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno2',md5(12345),'AliasAl2'),</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B13" si="0">CONCATENATE("(",F3,",'",G3,"','",H3,"','",I3,"','",J3,"',",K3,",",L3,",",M3,",'",N3,"@email.es'),")</f>
+        <f t="shared" ref="B3:B13" si="1">CONCATENATE("(",F3,",'",G3,"','",H3,"','",I3,"','",J3,"',",K3,",",L3,",",M3,",'",N3,"@email.es'),")</f>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),'NomAlumno2','Ap1Alumno2','Ap2Alumno2','12345678B',2,19830409,0,'email2@email.es'),</v>
       </c>
       <c r="C3" t="s">
@@ -753,19 +764,19 @@
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F13" si="1">CONCATENATE("(select id_usuario from usuario where nombre_usuario='",C3,"')")</f>
+        <f t="shared" ref="F3:F13" si="2">CONCATENATE("(select id_usuario from usuario where nombre_usuario='",C3,"')")</f>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G13" si="2">CONCATENATE("Nom",C3)</f>
+        <f t="shared" ref="G3:G13" si="3">CONCATENATE("Nom",C3)</f>
         <v>NomAlumno2</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H13" si="3">CONCATENATE("Ap1",C3)</f>
+        <f t="shared" ref="H3:H13" si="4">CONCATENATE("Ap1",C3)</f>
         <v>Ap1Alumno2</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I13" si="4">CONCATENATE("Ap2",C3)</f>
+        <f t="shared" ref="I3:I13" si="5">CONCATENATE("Ap2",C3)</f>
         <v>Ap2Alumno2</v>
       </c>
       <c r="J3" t="s">
@@ -786,11 +797,11 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>CONCATENATE("('",C4,"',md5(",D4,"),'",E4,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno3',md5(12345),'AliasAl3'),</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),'NomAlumno3','Ap1Alumno3','Ap2Alumno3','12345678C',3,19990112,0,'email3@email.es'),</v>
       </c>
       <c r="C4" t="s">
@@ -803,19 +814,19 @@
         <v>8</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno3</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno3</v>
       </c>
       <c r="J4" t="s">
@@ -836,11 +847,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>CONCATENATE("('",C5,"',md5(",D5,"),'",E5,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno4',md5(12345),'AliasAl4'),</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),'NomAlumno4','Ap1Alumno4','Ap2Alumno4','12345678D',4,20000213,0,'email4@email.es'),</v>
       </c>
       <c r="C5" t="s">
@@ -853,19 +864,19 @@
         <v>10</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno4</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno4</v>
       </c>
       <c r="J5" t="s">
@@ -886,11 +897,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>CONCATENATE("('",C6,"',md5(",D6,"),'",E6,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno5',md5(12345),'AliasAl5'),</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),'NomAlumno5','Ap1Alumno5','Ap2Alumno5','12345678E',1,20000314,0,'email5@email.es'),</v>
       </c>
       <c r="C6" t="s">
@@ -903,19 +914,19 @@
         <v>12</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno5</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno5</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno5</v>
       </c>
       <c r="J6" t="s">
@@ -936,11 +947,11 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>CONCATENATE("('",C7,"',md5(",D7,"),'",E7,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno6',md5(12345),'AliasAl6'),</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),'NomAlumno6','Ap1Alumno6','Ap2Alumno6','12345678F',2,20000415,0,'email6@email.es'),</v>
       </c>
       <c r="C7" t="s">
@@ -953,19 +964,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno6</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno6</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno6</v>
       </c>
       <c r="J7" t="s">
@@ -986,11 +997,11 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>CONCATENATE("('",C8,"',md5(",D8,"),'",E8,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno7',md5(12345),'AliasAl7'),</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),'NomAlumno7','Ap1Alumno7','Ap2Alumno7','12345678G',3,20000516,0,'email7@email.es'),</v>
       </c>
       <c r="C8" t="s">
@@ -1003,19 +1014,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno7</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno7</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno7</v>
       </c>
       <c r="J8" t="s">
@@ -1036,11 +1047,11 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>CONCATENATE("('",C9,"',md5(",D9,"),'",E9,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno8',md5(12345),'AliasAl8'),</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),'NomAlumno8','Ap1Alumno8','Ap2Alumno8','12345678H',4,20000617,0,'email8@email.es'),</v>
       </c>
       <c r="C9" t="s">
@@ -1053,19 +1064,19 @@
         <v>18</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno8</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno8</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno8</v>
       </c>
       <c r="J9" t="s">
@@ -1086,11 +1097,11 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>CONCATENATE("('",C10,"',md5(",D10,"),'",E10,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno9',md5(12345),'AliasAl9'),</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),'NomAlumno9','Ap1Alumno9','Ap2Alumno9','12345678I',1,20000718,0,'email9@email.es'),</v>
       </c>
       <c r="C10" t="s">
@@ -1103,19 +1114,19 @@
         <v>20</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno9</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno9</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno9</v>
       </c>
       <c r="J10" t="s">
@@ -1136,11 +1147,11 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>CONCATENATE("('",C11,"',md5(",D11,"),'",E11,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno10',md5(12345),'AliasAl10'),</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),'NomAlumno10','Ap1Alumno10','Ap2Alumno10','12345678J',2,20000819,0,'email10@email.es'),</v>
       </c>
       <c r="C11" t="s">
@@ -1153,19 +1164,19 @@
         <v>22</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno10</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno10</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno10</v>
       </c>
       <c r="J11" t="s">
@@ -1186,11 +1197,11 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>CONCATENATE("('",C12,"',md5(",D12,"),'",E12,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno11',md5(12346),'AliasAl11'),</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),'NomAlumno11','Ap1Alumno11','Ap2Alumno11','12345678K',3,20000920,0,'email11@email.es'),</v>
       </c>
       <c r="C12" t="s">
@@ -1203,19 +1214,19 @@
         <v>24</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno11</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno11</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno11</v>
       </c>
       <c r="J12" t="s">
@@ -1236,11 +1247,11 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>CONCATENATE("('",C13,"',md5(",D13,"),'",E13,"'),")</f>
+        <f t="shared" si="0"/>
         <v>('Alumno12',md5(12347),'AliasAl12'),</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),'NomAlumno12','Ap1Alumno12','Ap2Alumno12','12345678L',4,20001021,0,'email12@email.es'),</v>
       </c>
       <c r="C13" t="s">
@@ -1253,19 +1264,19 @@
         <v>26</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NomAlumno12</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ap1Alumno12</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Ap2Alumno12</v>
       </c>
       <c r="J13" t="s">
@@ -1293,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1362,7 +1373,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f ca="1">CONCATENATE("(",C3,",",D3,",'",E3,"',",F3,",",G3,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-04-24 13:51:27',10,44),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-04-18 14:51:27',1,7),</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1377,19 +1388,19 @@
       </c>
       <c r="E3" s="4" t="str">
         <f ca="1">CONCATENATE(H3,"-",I3,"-",J3," ",K3,":",L3,":",M3)</f>
-        <v>2022-04-24 13:51:27</v>
+        <v>2023-04-18 14:51:27</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,25)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(5,59)</f>
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(2022,2023)</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,12),"00")</f>
@@ -1397,11 +1408,11 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J4" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
@@ -1415,7 +1426,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A50" ca="1" si="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",",G4,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-08-27 08:51:17',3,27),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-07-05 19:01:57',25,24),</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -1430,15 +1441,15 @@
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ref="E4:E18" ca="1" si="4">CONCATENATE(H4,"-",I4,"-",J4," ",K4,":",L4,":",M4)</f>
-        <v>2023-08-27 08:51:17</v>
+        <v>2023-07-05 19:01:57</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F50" ca="1" si="5">RANDBETWEEN(1,25)</f>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G50" ca="1" si="6">RANDBETWEEN(5,59)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H50" ca="1" si="7">RANDBETWEEN(2022,2023)</f>
@@ -1446,29 +1457,29 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I50" ca="1" si="8">TEXT(RANDBETWEEN(1,12),"00")</f>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>05</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K50" ca="1" si="9">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>08</v>
+        <v>19</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:M19" ca="1" si="10">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>51</v>
+        <v>01</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2022-08-04 21:25:55',21,31),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-09-11 14:54:16',19,18),</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1483,45 +1494,45 @@
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-08-04 21:25:55</v>
+        <v>2023-09-11 14:54:16</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>04</v>
+        <v>11</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2022-07-11 14:27:18',2,43),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-10-07 12:37:21',2,6),</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -1536,7 +1547,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-07-11 14:27:18</v>
+        <v>2023-10-07 12:37:21</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
@@ -1544,37 +1555,37 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>10</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ref="J6:J50" ca="1" si="11">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>11</v>
+        <v>07</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-10-17 15:40:48',7,5),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-07-26 18:10:34',19,33),</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1589,15 +1600,15 @@
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-10-17 15:40:48</v>
+        <v>2022-07-26 18:10:34</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
@@ -1605,29 +1616,29 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>10</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>40</v>
-      </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-04-18 09:19:01',17,35),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2022-05-23 17:40:47',2,27),</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1642,45 +1653,45 @@
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-18 09:19:01</v>
+        <v>2022-05-23 17:40:47</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>17</v>
       </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>04</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>09</v>
-      </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>01</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2022-09-08 20:57:54',17,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2022-08-07 20:27:40',19,8),</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1695,15 +1706,15 @@
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-09-08 20:57:54</v>
+        <v>2022-08-07 20:27:40</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
@@ -1711,11 +1722,11 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1723,17 +1734,17 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-07-05 20:05:09',16,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-02-21 15:56:34',17,47),</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1748,15 +1759,15 @@
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-07-05 20:05:09</v>
+        <v>2022-02-21 15:56:34</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
@@ -1764,29 +1775,29 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>05</v>
+        <v>21</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>05</v>
+        <v>56</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>09</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-04-18 11:12:02',8,28),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-08-23 14:49:05',24,57),</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1801,45 +1812,45 @@
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-18 11:12:02</v>
+        <v>2022-08-23 14:49:05</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>02</v>
+        <v>05</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-11-06 10:33:53',6,59),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-10-16 08:54:37',9,32),</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1854,45 +1865,45 @@
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-06 10:33:53</v>
+        <v>2023-10-16 08:54:37</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>16</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>08</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-05-28 20:53:55',5,15),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-06-17 16:02:47',22,53),</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1907,15 +1918,15 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-05-28 20:53:55</v>
+        <v>2022-06-17 16:02:47</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
@@ -1923,29 +1934,29 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>02</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-11-22 14:33:43',8,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-05-10 12:23:42',17,30),</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1960,45 +1971,45 @@
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-22 14:33:43</v>
+        <v>2023-05-10 12:23:42</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>05</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-06-24 08:34:19',8,41),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-05-06 13:17:32',17,29),</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2013,15 +2024,15 @@
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-06-24 08:34:19</v>
+        <v>2023-05-06 13:17:32</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
@@ -2029,29 +2040,29 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>06</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>24</v>
-      </c>
       <c r="K15" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>13</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-11-12 13:18:51',10,41),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-06-28 13:48:29',23,59),</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2066,15 +2077,15 @@
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-11-12 13:18:51</v>
+        <v>2023-06-28 13:48:29</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
@@ -2082,11 +2093,11 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>06</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2094,17 +2105,17 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-12-04 10:05:49',15,31),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-01-19 20:38:40',8,16),</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2119,15 +2130,15 @@
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-12-04 10:05:49</v>
+        <v>2023-01-19 20:38:40</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
@@ -2135,29 +2146,29 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>01</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>19</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>05</v>
+        <v>38</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2022-01-06 09:06:52',24,52),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-03-26 15:39:42',16,22),</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -2172,45 +2183,45 @@
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-01-06 09:06:52</v>
+        <v>2023-03-26 15:39:42</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>26</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>15</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>06</v>
+        <v>39</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-03-04 14:35:02',18,7),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-04-08 14:11:31',23,38),</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -2225,27 +2236,27 @@
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" ref="E19:E50" ca="1" si="12">CONCATENATE(H19,"-",I19,"-",J19," ",K19,":",L19,":",M19)</f>
-        <v>2023-03-04 14:35:02</v>
+        <v>2022-04-08 14:11:31</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2253,17 +2264,17 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>02</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2022-01-21 11:45:03',18,36),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-04-22 13:29:39',14,32),</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -2278,45 +2289,45 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-01-21 11:45:03</v>
+        <v>2023-04-22 13:29:39</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ref="L20:M50" ca="1" si="13">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-01-07 17:31:41',21,23),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-03-24 20:53:02',16,10),</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -2331,15 +2342,15 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-01-07 17:31:41</v>
+        <v>2023-03-24 20:53:02</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
@@ -2347,29 +2358,29 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>24</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>02</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-11-05 20:29:28',11,19),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-09-13 09:25:03',8,55),</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2384,15 +2395,15 @@
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-11-05 20:29:28</v>
+        <v>2023-09-13 09:25:03</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
@@ -2400,29 +2411,29 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>05</v>
+        <v>13</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>09</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>03</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-07-23 14:08:13',18,9),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-12-15 16:06:58',13,17),</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2437,45 +2448,45 @@
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-07-23 14:08:13</v>
+        <v>2022-12-15 16:06:58</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>12</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-06-27 19:03:31',3,42),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-05-04 18:14:46',12,50),</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -2490,15 +2501,15 @@
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-06-27 19:03:31</v>
+        <v>2023-05-04 18:14:46</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
@@ -2506,29 +2517,29 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>04</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>14</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2022-02-03 20:17:14',18,57),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-11-06 12:27:13',17,38),</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2543,45 +2554,45 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-02-03 20:17:14</v>
+        <v>2023-11-06 12:27:13</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>11</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-04-21 20:34:19',2,34),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-05-02 15:56:35',14,46),</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -2596,15 +2607,15 @@
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-04-21 20:34:19</v>
+        <v>2022-05-02 15:56:35</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
@@ -2612,29 +2623,29 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>02</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-03-15 19:31:05',8,8),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-12-13 08:15:17',23,6),</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2649,15 +2660,15 @@
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-03-15 19:31:05</v>
+        <v>2023-12-13 08:15:17</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
@@ -2665,29 +2676,29 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>12</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>15</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>31</v>
-      </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>05</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-10-11 13:36:36',25,52),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-09-01 17:45:50',24,9),</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -2702,45 +2713,45 @@
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-10-11 13:36:36</v>
+        <v>2022-09-01 17:45:50</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>09</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-09-02 12:13:06',3,40),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-05-24 10:01:01',20,20),</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2755,15 +2766,15 @@
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-09-02 12:13:06</v>
+        <v>2023-05-24 10:01:01</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
@@ -2771,29 +2782,29 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>05</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>24</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>01</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>06</v>
+        <v>01</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-06-13 11:33:03',1,8),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-02-14 09:37:47',21,26),</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -2808,45 +2819,45 @@
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-06-13 11:33:03</v>
+        <v>2022-02-14 09:37:47</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-06-09 12:09:36',2,14),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-04-14 09:04:35',24,44),</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -2861,45 +2872,45 @@
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-06-09 12:09:36</v>
+        <v>2023-04-14 09:04:35</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>14</v>
       </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>06</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>09</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>09</v>
+        <v>04</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-06-21 19:59:58',13,36),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2022-01-01 15:22:01',18,19),</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -2914,45 +2925,45 @@
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-06-21 19:59:58</v>
+        <v>2022-01-01 15:22:01</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>01</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>01</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2022-11-19 19:11:39',20,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-09-14 08:23:06',3,53),</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2967,45 +2978,45 @@
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-11-19 19:11:39</v>
+        <v>2023-09-14 08:23:06</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>08</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>06</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2022-07-20 10:54:23',1,40),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-10-28 21:37:36',7,48),</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -3020,45 +3031,45 @@
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-07-20 10:54:23</v>
+        <v>2023-10-28 21:37:36</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>10</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-11-14 18:12:39',17,37),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-07-11 19:26:01',15,19),</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
@@ -3073,45 +3084,45 @@
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-11-14 18:12:39</v>
+        <v>2023-07-11 19:26:01</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>11</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>14</v>
-      </c>
       <c r="K35" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>01</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2022-05-09 15:13:33',11,26),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2022-04-27 18:42:32',15,7),</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
@@ -3126,15 +3137,15 @@
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-05-09 15:13:33</v>
+        <v>2022-04-27 18:42:32</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
@@ -3142,29 +3153,29 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>09</v>
+        <v>27</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-08-21 19:31:10',24,33),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2022-10-07 19:47:46',10,10),</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
@@ -3179,27 +3190,27 @@
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-08-21 19:31:10</v>
+        <v>2022-10-07 19:47:46</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>10</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>07</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3207,17 +3218,17 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-03-12 19:36:36',18,21),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-10-05 10:37:54',17,49),</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -3232,15 +3243,15 @@
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-03-12 19:36:36</v>
+        <v>2023-10-05 10:37:54</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
@@ -3248,29 +3259,29 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>05</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-12-27 08:45:58',1,40),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-05-19 20:40:02',23,32),</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -3285,45 +3296,45 @@
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-12-27 08:45:58</v>
+        <v>2022-05-19 20:40:02</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>40</v>
       </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>08</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>45</v>
-      </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>02</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-05-18 21:55:08',15,27),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2022-10-04 09:30:35',19,55),</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -3338,45 +3349,45 @@
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-05-18 21:55:08</v>
+        <v>2022-10-04 09:30:35</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>10</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>04</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>09</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>08</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-01-10 21:04:17',22,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-07-27 17:17:27',22,37),</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -3391,7 +3402,7 @@
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-01-10 21:04:17</v>
+        <v>2023-07-27 17:17:27</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
@@ -3399,7 +3410,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
@@ -3407,29 +3418,29 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>04</v>
+        <v>17</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-02-19 10:20:56',24,47),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-07-10 17:41:31',25,59),</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -3444,45 +3455,45 @@
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-02-19 10:20:56</v>
+        <v>2022-07-10 17:41:31</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>07</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-05-01 17:50:49',15,19),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-10-07 13:55:26',4,9),</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3497,15 +3508,15 @@
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-05-01 17:50:49</v>
+        <v>2022-10-07 13:55:26</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
@@ -3513,29 +3524,29 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>10</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-01-09 08:03:30',17,44),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-10-04 14:46:15',18,32),</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -3550,15 +3561,15 @@
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-01-09 08:03:30</v>
+        <v>2022-10-04 14:46:15</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
@@ -3566,29 +3577,29 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>09</v>
+        <v>04</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>14</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>46</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-03-10 09:50:03',2,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-06-02 18:54:49',4,23),</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3603,15 +3614,15 @@
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-03-10 09:50:03</v>
+        <v>2023-06-02 18:54:49</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="7"/>
@@ -3619,29 +3630,29 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>18</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-10-10 15:52:54',25,42),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-11-27 11:05:05',2,10),</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -3656,15 +3667,15 @@
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-10-10 15:52:54</v>
+        <v>2022-11-27 11:05:05</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
@@ -3672,29 +3683,29 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>05</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>05</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-09-11 09:33:27',23,24),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-12-03 21:02:05',11,44),</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -3709,15 +3720,15 @@
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-09-11 09:33:27</v>
+        <v>2023-12-03 21:02:05</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
@@ -3725,29 +3736,29 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>12</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>03</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>21</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>02</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>05</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-01-21 13:24:27',3,17),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-07-13 15:37:24',20,38),</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3762,15 +3773,15 @@
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-01-21 13:24:27</v>
+        <v>2023-07-13 15:37:24</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
@@ -3778,29 +3789,29 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>24</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2022-05-21 19:31:19',13,25),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2022-11-08 21:04:30',12,22),</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3815,15 +3826,15 @@
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-05-21 19:31:19</v>
+        <v>2022-11-08 21:04:30</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
@@ -3831,29 +3842,29 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>11</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>21</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>19</v>
-      </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>04</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2022-07-26 21:45:43',21,44),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-09-20 11:54:37',16,12),</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -3868,40 +3879,2866 @@
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-07-26 21:45:43</v>
+        <v>2023-09-20 11:54:37</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>09</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="9" max="14" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f ca="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",sec_to_time(",G4,"),",H4,"),")</f>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-10-07 12:37:29',19,sec_to_time(43),1),</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B4,"')")</f>
+        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B4,"')")</f>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f ca="1">CONCATENATE(I4,"-",J4,"-",K4," ",L4,":",M4,":",N4)</f>
+        <v>2023-10-07 12:37:29</v>
+      </c>
+      <c r="F4">
+        <f ca="1">RANDBETWEEN(1,25)</f>
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <f ca="1">RANDBETWEEN(5,200)</f>
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <f ca="1">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f ca="1">RANDBETWEEN(2022,2023)</f>
+        <v>2023</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(1,12),"00")</f>
+        <v>10</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K5" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>07</v>
+      </c>
+      <c r="L4" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
+        <v>12</v>
+      </c>
+      <c r="M4" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>37</v>
+      </c>
+      <c r="N4" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A51" ca="1" si="1">CONCATENATE("(",C5,",",D5,",'",E5,"',",F5,",sec_to_time(",G5,"),",H5,"),")</f>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-05-11 10:01:39',6,sec_to_time(19),2),</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C51" si="2">CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B5,"')")</f>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D51" si="3">CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B5,"')")</f>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ref="E5:E51" ca="1" si="4">CONCATENATE(I5,"-",J5,"-",K5," ",L5,":",M5,":",N5)</f>
+        <v>2023-05-11 10:01:39</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F51" ca="1" si="5">RANDBETWEEN(1,25)</f>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G51" ca="1" si="6">RANDBETWEEN(5,200)</f>
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H51" ca="1" si="7">RANDBETWEEN(1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I51" ca="1" si="8">RANDBETWEEN(2022,2023)</f>
+        <v>2023</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J51" ca="1" si="9">TEXT(RANDBETWEEN(1,12),"00")</f>
+        <v>05</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L51" ca="1" si="10">TEXT(RANDBETWEEN(8,21),"00")</f>
+        <v>10</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:N20" ca="1" si="11">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>01</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-09-24 15:12:27',5,sec_to_time(110),1),</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-09-24 15:12:27</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
+      </c>
+      <c r="K6" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>24</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-03-08 19:52:20',21,sec_to_time(58),2),</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-03-08 19:52:20</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>03</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K51" ca="1" si="12">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>08</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2022-01-04 09:40:44',20,sec_to_time(124),1),</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-01-04 09:40:44</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>01</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-05-12 17:38:36',24,sec_to_time(68),2),</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-05-12 17:38:36</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-05-22 13:18:43',7,sec_to_time(109),1),</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-05-22 13:18:43</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-06-24 20:27:30',20,sec_to_time(103),2),</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-06-24 20:27:30</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>06</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-01-15 19:49:01',23,sec_to_time(20),1),</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-01-15 19:49:01</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>01</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-08-20 18:01:49',1,sec_to_time(123),2),</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-08-20 18:01:49</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-09-25 13:16:14',19,sec_to_time(5),2),</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-09-25 13:16:14</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-11-22 21:46:44',18,sec_to_time(168),2),</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-11-22 21:46:44</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-07-06 12:55:06',20,sec_to_time(170),2),</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-07-06 12:55:06</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>07</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-02-25 14:30:56',10,sec_to_time(7),2),</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-02-25 14:30:56</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>02</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-03-24 10:40:43',14,sec_to_time(42),1),</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-03-24 10:40:43</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>03</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-05-12 09:03:24',19,sec_to_time(180),1),</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-05-12 09:03:24</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>03</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-07-01 09:25:21',13,sec_to_time(48),2),</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-07-01 09:25:21</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>07</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>01</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-03-27 15:36:09',1,sec_to_time(50),1),</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-03-27 15:36:09</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>03</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ref="M21:N51" ca="1" si="13">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>36</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-12-19 15:53:09',12,sec_to_time(97),2),</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-12-19 15:53:09</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>53</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-03-27 08:18:08',17,sec_to_time(141),1),</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-03-27 08:18:08</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>03</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-04-04 20:42:44',13,sec_to_time(161),2),</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-04-04 20:42:44</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>04</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2022-11-17 11:44:27',10,sec_to_time(86),1),</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-11-17 11:44:27</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2022-02-12 20:13:33',4,sec_to_time(75),1),</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-02-12 20:13:33</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>02</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-02-17 21:23:52',18,sec_to_time(147),1),</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-02-17 21:23:52</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>02</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-03-20 12:56:18',21,sec_to_time(20),2),</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-03-20 12:56:18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>03</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-04-06 12:23:16',21,sec_to_time(56),2),</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-04-06 12:23:16</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>04</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2022-05-19 13:37:15',24,sec_to_time(151),2),</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-05-19 13:37:15</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-11-08 17:02:05',21,sec_to_time(59),1),</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-11-08 17:02:05</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>02</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2022-06-05 17:21:25',15,sec_to_time(176),1),</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-06-05 17:21:25</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>06</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>05</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-02-19 13:37:00',6,sec_to_time(173),2),</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-02-19 13:37:00</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>02</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-10-16 12:32:59',14,sec_to_time(52),2),</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-10-16 12:32:59</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-08-18 20:28:09',25,sec_to_time(66),1),</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-08-18 20:28:09</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2022-07-01 17:02:59',15,sec_to_time(83),1),</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-07-01 17:02:59</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>07</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>01</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>02</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-05-28 17:56:25',18,sec_to_time(14),2),</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-05-28 17:56:25</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2022-09-23 21:01:43',23,sec_to_time(177),1),</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-09-23 21:01:43</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-11-17 10:55:15',8,sec_to_time(34),2),</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-11-17 10:55:15</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-09-26 19:13:35',9,sec_to_time(93),1),</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-09-26 19:13:35</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-05-07 20:26:04',10,sec_to_time(128),1),</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-05-07 20:26:04</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>07</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-05-08 09:09:31',25,sec_to_time(44),2),</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-05-08 09:09:31</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2022-11-25 08:13:47',1,sec_to_time(71),1),</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-11-25 08:13:47</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-08-06 14:41:32',19,sec_to_time(121),1),</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-08-06 14:41:32</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2022-02-04 08:36:50',21,sec_to_time(108),1),</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-02-04 08:36:50</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>02</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-04-24 13:54:55',25,sec_to_time(187),2),</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-04-24 13:54:55</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>04</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-06-04 20:11:00',17,sec_to_time(192),1),</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-06-04 20:11:00</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>06</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-11-28 10:53:31',13,sec_to_time(40),1),</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-11-28 10:53:31</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>53</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-08-21 12:10:34',4,sec_to_time(15),1),</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-08-21 12:10:34</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-11-10 21:18:22',23,sec_to_time(175),2),</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2023-11-10 21:18:22</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-05-09 18:19:33',23,sec_to_time(113),2),</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-05-09 18:19:33</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>07</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>45</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>43</v>
-      </c>
+      <c r="J51" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>05</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BBDD/GeneradorPersonas.xlsx
+++ b/BBDD/GeneradorPersonas.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="UserPersona" sheetId="1" r:id="rId1"/>
     <sheet name="Calculo" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculo (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="RestoDiv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>Usuario</t>
   </si>
@@ -268,10 +268,13 @@
     <t>RestoDiv</t>
   </si>
   <si>
-    <t>intentos</t>
-  </si>
-  <si>
     <t>insert into resto_div(jugador,reto,fecha_hora,puntos,tiempo_partida,intentos) values</t>
+  </si>
+  <si>
+    <t>insert into resto_div(jugador,reto,fecha_hora,aciertos,tiempo_partida) values</t>
+  </si>
+  <si>
+    <t>Aciertos</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,7 +1377,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f ca="1">CONCATENATE("(",C3,",",D3,",'",E3,"',",F3,",",G3,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-04-18 14:51:27',1,7),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-05-06 16:36:24',5,26),</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1388,45 +1392,45 @@
       </c>
       <c r="E3" s="4" t="str">
         <f ca="1">CONCATENATE(H3,"-",I3,"-",J3," ",K3,":",L3,":",M3)</f>
-        <v>2023-04-18 14:51:27</v>
+        <v>2022-05-06 16:36:24</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,25)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(5,59)</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(2022,2023)</f>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,12),"00")</f>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J4" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>18</v>
+        <v>06</v>
       </c>
       <c r="K3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A50" ca="1" si="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",",G4,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-07-05 19:01:57',25,24),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-06-26 15:08:42',24,59),</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -1441,15 +1445,15 @@
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ref="E4:E18" ca="1" si="4">CONCATENATE(H4,"-",I4,"-",J4," ",K4,":",L4,":",M4)</f>
-        <v>2023-07-05 19:01:57</v>
+        <v>2023-06-26 15:08:42</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F50" ca="1" si="5">RANDBETWEEN(1,25)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G50" ca="1" si="6">RANDBETWEEN(5,59)</f>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H50" ca="1" si="7">RANDBETWEEN(2022,2023)</f>
@@ -1457,29 +1461,29 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I50" ca="1" si="8">TEXT(RANDBETWEEN(1,12),"00")</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05</v>
+        <v>26</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K50" ca="1" si="9">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:M19" ca="1" si="10">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>01</v>
+        <v>08</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-09-11 14:54:16',19,18),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2022-06-04 08:56:44',19,21),</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1494,7 +1498,7 @@
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-11 14:54:16</v>
+        <v>2022-06-04 08:56:44</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
@@ -1502,37 +1506,37 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>11</v>
+        <v>04</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>08</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-10-07 12:37:21',2,6),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-03-03 16:08:04',5,31),</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -1547,15 +1551,15 @@
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-10-07 12:37:21</v>
+        <v>2023-03-03 16:08:04</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
@@ -1563,29 +1567,29 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ref="J6:J50" ca="1" si="11">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>07</v>
+        <v>03</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>08</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>04</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-07-26 18:10:34',19,33),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-05-05 17:01:17',14,56),</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1600,45 +1604,45 @@
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-07-26 18:10:34</v>
+        <v>2023-05-05 17:01:17</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>05</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>05</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2022-05-23 17:40:47',2,27),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2022-01-11 13:48:29',18,13),</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1653,15 +1657,15 @@
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-05-23 17:40:47</v>
+        <v>2022-01-11 13:48:29</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
@@ -1669,29 +1673,29 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>01</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2022-08-07 20:27:40',19,8),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2022-01-10 15:48:03',1,36),</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1706,15 +1710,15 @@
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-08-07 20:27:40</v>
+        <v>2022-01-10 15:48:03</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
@@ -1722,29 +1726,29 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>01</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>10</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>03</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-02-21 15:56:34',17,47),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-10-02 08:03:48',20,41),</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1759,15 +1763,15 @@
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-02-21 15:56:34</v>
+        <v>2022-10-02 08:03:48</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
@@ -1775,29 +1779,29 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>02</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>21</v>
-      </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>08</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>03</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-08-23 14:49:05',24,57),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-06-12 11:01:04',3,56),</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1812,15 +1816,15 @@
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-08-23 14:49:05</v>
+        <v>2022-06-12 11:01:04</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
@@ -1828,29 +1832,29 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>01</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>05</v>
+        <v>04</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-10-16 08:54:37',9,32),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-09-03 12:38:25',17,12),</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1865,15 +1869,15 @@
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-10-16 08:54:37</v>
+        <v>2023-09-03 12:38:25</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
@@ -1881,29 +1885,29 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>09</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>03</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>12</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-06-17 16:02:47',22,53),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-10-02 12:13:08',21,31),</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1918,15 +1922,15 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-06-17 16:02:47</v>
+        <v>2022-10-02 12:13:08</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
@@ -1934,29 +1938,29 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>10</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>02</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>02</v>
+        <v>13</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>08</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-05-10 12:23:42',17,30),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-07-03 15:43:16',22,7),</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1971,15 +1975,15 @@
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-10 12:23:42</v>
+        <v>2023-07-03 15:43:16</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
@@ -1987,29 +1991,29 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-05-06 13:17:32',17,29),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2022-10-01 17:44:00',20,34),</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2024,45 +2028,45 @@
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-06 13:17:32</v>
+        <v>2022-10-01 17:44:00</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>17</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>05</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>06</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>00</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-06-28 13:48:29',23,59),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2022-03-07 08:03:38',13,40),</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2077,45 +2081,45 @@
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-06-28 13:48:29</v>
+        <v>2022-03-07 08:03:38</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>03</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>07</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>08</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>03</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-01-19 20:38:40',8,16),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-07-20 12:43:33',7,14),</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2130,15 +2134,15 @@
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-19 20:38:40</v>
+        <v>2023-07-20 12:43:33</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
@@ -2146,29 +2150,29 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-03-26 15:39:42',16,22),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2022-10-01 18:53:57',20,6),</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -2183,45 +2187,45 @@
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-26 15:39:42</v>
+        <v>2022-10-01 18:53:57</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>01</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-04-08 14:11:31',23,38),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-06-06 12:06:51',20,9),</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -2236,45 +2240,45 @@
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" ref="E19:E50" ca="1" si="12">CONCATENATE(H19,"-",I19,"-",J19," ",K19,":",L19,":",M19)</f>
-        <v>2022-04-08 14:11:31</v>
+        <v>2023-06-06 12:06:51</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>06</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-04-22 13:29:39',14,32),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-12-26 10:30:15',7,12),</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -2289,15 +2293,15 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-04-22 13:29:39</v>
+        <v>2023-12-26 10:30:15</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
@@ -2305,29 +2309,29 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>12</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ref="L20:M50" ca="1" si="13">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-03-24 20:53:02',16,10),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-04-07 21:35:33',21,13),</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -2342,15 +2346,15 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-03-24 20:53:02</v>
+        <v>2023-04-07 21:35:33</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
@@ -2358,29 +2362,29 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>07</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>02</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-09-13 09:25:03',8,55),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2022-08-05 14:54:25',15,52),</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2395,45 +2399,45 @@
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-09-13 09:25:03</v>
+        <v>2022-08-05 14:54:25</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>05</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-12-15 16:06:58',13,17),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-07-10 08:37:19',16,56),</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2448,45 +2452,45 @@
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-12-15 16:06:58</v>
+        <v>2023-07-10 08:37:19</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>07</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>08</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>06</v>
+        <v>37</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-05-04 18:14:46',12,50),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-08-24 15:54:30',20,16),</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -2501,15 +2505,15 @@
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-05-04 18:14:46</v>
+        <v>2023-08-24 15:54:30</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
@@ -2517,29 +2521,29 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>08</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>24</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-11-06 12:27:13',17,38),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-11-09 11:25:04',2,56),</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2554,15 +2558,15 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-11-06 12:27:13</v>
+        <v>2023-11-09 11:25:04</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
@@ -2574,25 +2578,25 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>09</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>04</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-05-02 15:56:35',14,46),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-09-12 16:06:00',19,21),</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -2607,15 +2611,15 @@
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-05-02 15:56:35</v>
+        <v>2022-09-12 16:06:00</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
@@ -2623,29 +2627,29 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>09</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>06</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>00</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-12-13 08:15:17',23,6),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-01-15 19:08:32',23,8),</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2660,7 +2664,7 @@
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-12-13 08:15:17</v>
+        <v>2023-01-15 19:08:32</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
@@ -2668,7 +2672,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
@@ -2676,29 +2680,29 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>01</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>19</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>08</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-09-01 17:45:50',24,9),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-11-24 10:09:00',16,56),</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -2713,45 +2717,45 @@
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-09-01 17:45:50</v>
+        <v>2023-11-24 10:09:00</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>24</v>
       </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>09</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>01</v>
-      </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>09</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>00</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-05-24 10:01:01',20,20),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-02-13 15:15:24',7,35),</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2766,45 +2770,45 @@
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-05-24 10:01:01</v>
+        <v>2022-02-13 15:15:24</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>01</v>
+        <v>15</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>01</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-02-14 09:37:47',21,26),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-07-25 21:35:45',14,28),</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -2819,45 +2823,45 @@
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-02-14 09:37:47</v>
+        <v>2022-07-25 21:35:45</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>21</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>02</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>09</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-04-14 09:04:35',24,44),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-10-23 17:21:44',18,38),</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -2872,15 +2876,15 @@
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-04-14 09:04:35</v>
+        <v>2023-10-23 17:21:44</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
@@ -2888,29 +2892,29 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>10</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>17</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>04</v>
+        <v>21</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2022-01-01 15:22:01',18,19),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-11-07 11:14:11',11,16),</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -2925,45 +2929,45 @@
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-01-01 15:22:01</v>
+        <v>2023-11-07 11:14:11</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>01</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-09-14 08:23:06',3,53),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-12-16 13:05:19',4,51),</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2978,15 +2982,15 @@
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-09-14 08:23:06</v>
+        <v>2023-12-16 13:05:19</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
@@ -2994,29 +2998,29 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>12</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>13</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>05</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>06</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-10-28 21:37:36',7,48),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2022-01-01 19:22:55',13,39),</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -3031,45 +3035,45 @@
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-10-28 21:37:36</v>
+        <v>2022-01-01 19:22:55</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>01</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-07-11 19:26:01',15,19),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2022-06-16 19:53:16',19,44),</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
@@ -3084,27 +3088,27 @@
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-07-11 19:26:01</v>
+        <v>2022-06-16 19:53:16</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3112,17 +3116,17 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>01</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2022-04-27 18:42:32',15,7),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-04-02 13:40:52',22,57),</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
@@ -3137,19 +3141,19 @@
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-04-27 18:42:32</v>
+        <v>2023-04-02 13:40:52</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3157,25 +3161,25 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>02</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2022-10-07 19:47:46',10,10),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-08-24 18:09:13',15,50),</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
@@ -3190,45 +3194,45 @@
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-10-07 19:47:46</v>
+        <v>2023-08-24 18:09:13</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>08</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>24</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>09</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-10-05 10:37:54',17,49),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-02-03 20:09:47',23,25),</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -3243,15 +3247,15 @@
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-10-05 10:37:54</v>
+        <v>2023-02-03 20:09:47</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
@@ -3259,29 +3263,29 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>05</v>
+        <v>03</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>09</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2022-05-19 20:40:02',23,32),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-09-06 12:45:59',3,33),</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -3296,45 +3300,45 @@
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-05-19 20:40:02</v>
+        <v>2023-09-06 12:45:59</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>09</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>06</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>02</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2022-10-04 09:30:35',19,55),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-02-09 09:46:02',17,50),</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -3349,27 +3353,27 @@
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-10-04 09:30:35</v>
+        <v>2023-02-09 09:46:02</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>09</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3377,17 +3381,17 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>02</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-07-27 17:17:27',22,37),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-09-22 19:07:35',23,26),</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -3402,45 +3406,45 @@
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-07-27 17:17:27</v>
+        <v>2023-09-22 19:07:35</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>09</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>22</v>
       </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="H41">
-        <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>07</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
       <c r="K41" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>07</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-07-10 17:41:31',25,59),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2022-06-10 20:28:48',17,35),</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -3455,15 +3459,15 @@
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-07-10 17:41:31</v>
+        <v>2022-06-10 20:28:48</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
@@ -3471,7 +3475,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3479,21 +3483,21 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2022-10-07 13:55:26',4,9),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-03-08 15:55:52',21,28),</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3508,31 +3512,31 @@
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-10-07 13:55:26</v>
+        <v>2023-03-08 15:55:52</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3540,13 +3544,13 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-10-04 14:46:15',18,32),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2022-03-08 16:09:11',15,27),</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -3561,15 +3565,15 @@
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-10-04 14:46:15</v>
+        <v>2022-03-08 16:09:11</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
@@ -3577,29 +3581,29 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>09</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-06-02 18:54:49',4,23),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2022-01-07 13:09:52',23,40),</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3614,45 +3618,45 @@
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-06-02 18:54:49</v>
+        <v>2022-01-07 13:09:52</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>07</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>09</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-11-27 11:05:05',2,10),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2022-10-01 15:38:43',15,29),</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -3667,45 +3671,45 @@
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-11-27 11:05:05</v>
+        <v>2022-10-01 15:38:43</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>10</v>
       </c>
-      <c r="H46">
-        <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
-      </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>01</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>05</v>
+        <v>38</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>05</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-12-03 21:02:05',11,44),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2022-10-13 20:00:29',17,12),</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -3720,45 +3724,45 @@
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-12-03 21:02:05</v>
+        <v>2022-10-13 20:00:29</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>03</v>
+        <v>13</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>05</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-07-13 15:37:24',20,38),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-09-18 10:35:51',8,34),</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3773,15 +3777,15 @@
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-07-13 15:37:24</v>
+        <v>2023-09-18 10:35:51</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
@@ -3789,29 +3793,29 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2022-11-08 21:04:30',12,22),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-08-17 15:19:11',23,35),</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3826,45 +3830,45 @@
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2022-11-08 21:04:30</v>
+        <v>2023-08-17 15:19:11</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>08</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>17</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>04</v>
+        <v>19</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-09-20 11:54:37',16,12),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-11-03 08:06:34',6,43),</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -3879,15 +3883,15 @@
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2023-09-20 11:54:37</v>
+        <v>2023-11-03 08:06:34</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
@@ -3895,23 +3899,23 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>11</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>03</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>08</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>06</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3922,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,2314 +3939,2198 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="9" max="14" width="5.7109375" customWidth="1"/>
+    <col min="8" max="13" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f ca="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",sec_to_time(",G4,"),",H4,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-10-07 12:37:29',19,sec_to_time(43),1),</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f ca="1">CONCATENATE("(",C3,",",D3,",'",E3,"',",F3,",sec_to_time(",G3,")),")</f>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-10-13 13:27:37',3,sec_to_time(33)),</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="str">
-        <f>CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B4,"')")</f>
+      <c r="C3" t="str">
+        <f>CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B3,"')")</f>
         <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
       </c>
-      <c r="D4" t="str">
-        <f>CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B4,"')")</f>
+      <c r="D3" t="str">
+        <f>CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$2,"' and nombre_usuario = '",B3,"')")</f>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f ca="1">CONCATENATE(I4,"-",J4,"-",K4," ",L4,":",M4,":",N4)</f>
-        <v>2023-10-07 12:37:29</v>
-      </c>
-      <c r="F4">
-        <f ca="1">RANDBETWEEN(1,25)</f>
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <f ca="1">RANDBETWEEN(5,200)</f>
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="E3" s="4" t="str">
+        <f ca="1">CONCATENATE(H3,"-",I3,"-",J3," ",K3,":",L3,":",M3)</f>
+        <v>2023-10-13 13:27:37</v>
+      </c>
+      <c r="F3">
+        <f ca="1">RANDBETWEEN(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f ca="1">RANDBETWEEN(25,200)</f>
+        <v>33</v>
+      </c>
+      <c r="H3">
         <f ca="1">RANDBETWEEN(2022,2023)</f>
         <v>2023</v>
       </c>
-      <c r="J4" t="str">
+      <c r="I3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,12),"00")</f>
         <v>10</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K5" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>07</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J4" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>13</v>
+      </c>
+      <c r="K3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>12</v>
-      </c>
-      <c r="M4" t="str">
+        <v>13</v>
+      </c>
+      <c r="L3" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>27</v>
+      </c>
+      <c r="M3" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
         <v>37</v>
       </c>
-      <c r="N4" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A50" ca="1" si="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",sec_to_time(",G4,")),")</f>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-04-26 12:43:04',1,sec_to_time(156)),</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C50" si="2">CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B4,"')")</f>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D50" si="3">CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$2,"' and nombre_usuario = '",B4,"')")</f>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E50" ca="1" si="4">CONCATENATE(H4,"-",I4,"-",J4," ",K4,":",L4,":",M4)</f>
+        <v>2023-04-26 12:43:04</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F50" ca="1" si="5">RANDBETWEEN(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G50" ca="1" si="6">RANDBETWEEN(25,200)</f>
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H50" ca="1" si="7">RANDBETWEEN(2022,2023)</f>
+        <v>2023</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I50" ca="1" si="8">TEXT(RANDBETWEEN(1,12),"00")</f>
+        <v>04</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K50" ca="1" si="9">TEXT(RANDBETWEEN(8,21),"00")</f>
+        <v>12</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:M19" ca="1" si="10">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>43</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A51" ca="1" si="1">CONCATENATE("(",C5,",",D5,",'",E5,"',",F5,",sec_to_time(",G5,"),",H5,"),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-05-11 10:01:39',6,sec_to_time(19),2),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2022-04-24 08:18:39',5,sec_to_time(134)),</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C51" si="2">CONCATENATE("(select id_usuario from usuario where nombre_usuario='",B5,"')")</f>
-        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+        <f t="shared" si="2"/>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D51" si="3">CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B5,"')")</f>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+        <f t="shared" si="3"/>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E51" ca="1" si="4">CONCATENATE(I5,"-",J5,"-",K5," ",L5,":",M5,":",N5)</f>
-        <v>2023-05-11 10:01:39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2022-04-24 08:18:39</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F51" ca="1" si="5">RANDBETWEEN(1,25)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G51" ca="1" si="6">RANDBETWEEN(5,200)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>134</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H51" ca="1" si="7">RANDBETWEEN(1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I51" ca="1" si="8">RANDBETWEEN(2022,2023)</f>
-        <v>2023</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J51" ca="1" si="9">TEXT(RANDBETWEEN(1,12),"00")</f>
-        <v>05</v>
+        <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>24</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L51" ca="1" si="10">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:N20" ca="1" si="11">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>01</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-09-24 15:12:27',5,sec_to_time(110),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-04-05 09:16:58',0,sec_to_time(159)),</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-24 15:12:27</v>
+        <v>2023-04-05 09:16:58</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
       <c r="J6" t="str">
+        <f t="shared" ref="J6:J50" ca="1" si="11">TEXT(RANDBETWEEN(1,28),"00")</f>
+        <v>05</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>09</v>
-      </c>
-      <c r="K6" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>24</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-03-08 19:52:20',21,sec_to_time(58),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2022-05-21 11:22:34',4,sec_to_time(67)),</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-03-08 19:52:20</v>
+        <v>2022-05-21 11:22:34</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>21</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>03</v>
-      </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7:K51" ca="1" si="12">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>08</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>52</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2022-01-04 09:40:44',20,sec_to_time(124),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-10-28 16:59:24',3,sec_to_time(134)),</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-01-04 09:40:44</v>
+        <v>2023-10-28 16:59:24</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>01</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>09</v>
+        <v>59</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-05-12 17:38:36',24,sec_to_time(68),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-09-06 10:00:44',5,sec_to_time(59)),</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-12 17:38:36</v>
+        <v>2023-09-06 10:00:44</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I9" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>09</v>
+      </c>
       <c r="J9" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>06</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>00</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>38</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-05-22 13:18:43',7,sec_to_time(109),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-04-25 10:23:35',5,sec_to_time(47)),</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-22 13:18:43</v>
+        <v>2023-04-25 10:23:35</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I10" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
       <c r="J10" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-06-24 20:27:30',20,sec_to_time(103),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-09-26 13:48:51',3,sec_to_time(163)),</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-06-24 20:27:30</v>
+        <v>2023-09-26 13:48:51</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>09</v>
+      </c>
       <c r="J11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>26</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-01-15 19:49:01',23,sec_to_time(20),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2022-04-23 12:18:24',1,sec_to_time(121)),</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-01-15 19:49:01</v>
+        <v>2022-04-23 12:18:24</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>23</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>01</v>
-      </c>
       <c r="K12" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-08-20 18:01:49',1,sec_to_time(123),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2022-05-05 12:54:52',2,sec_to_time(118)),</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-20 18:01:49</v>
+        <v>2022-05-05 12:54:52</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>05</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>01</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-09-25 13:16:14',19,sec_to_time(5),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-04-20 18:25:23',4,sec_to_time(120)),</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-25 13:16:14</v>
+        <v>2022-04-20 18:25:23</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-11-22 21:46:44',18,sec_to_time(168),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2022-05-07 13:50:26',2,sec_to_time(152)),</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-22 21:46:44</v>
+        <v>2022-05-07 13:50:26</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I15" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05</v>
+      </c>
       <c r="J15" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>07</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-10-05 10:22:52',5,sec_to_time(28)),</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-07-06 12:55:06',20,sec_to_time(170),2),</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-07-06 12:55:06</v>
+        <v>2022-10-05 10:22:52</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>07</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>05</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-02-25 14:30:56',10,sec_to_time(7),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-01-12 08:01:54',4,sec_to_time(97)),</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-02-25 14:30:56</v>
+        <v>2023-01-12 08:01:54</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>01</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>02</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>01</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-03-24 10:40:43',14,sec_to_time(42),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-07-22 20:42:12',3,sec_to_time(50)),</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-24 10:40:43</v>
+        <v>2022-07-22 20:42:12</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>03</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>22</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-05-12 09:03:24',19,sec_to_time(180),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2022-04-07 16:06:31',0,sec_to_time(126)),</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-05-12 09:03:24</v>
+        <v>2022-04-07 16:06:31</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I19" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
       <c r="J19" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>07</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>03</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-07-01 09:25:21',13,sec_to_time(48),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-11-10 13:06:12',0,sec_to_time(101)),</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-07-01 09:25:21</v>
+        <v>2023-11-10 13:06:12</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>13</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>07</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>01</v>
-      </c>
       <c r="L20" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>09</v>
+        <f t="shared" ref="L20:M50" ca="1" si="12">TEXT(RANDBETWEEN(0,59),"00")</f>
+        <v>06</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-03-27 15:36:09',1,sec_to_time(50),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-04-28 16:35:06',4,sec_to_time(131)),</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-27 15:36:09</v>
+        <v>2023-04-28 16:35:06</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I21" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
       <c r="J21" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>03</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>35</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ref="M21:N51" ca="1" si="13">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>36</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-12-19 15:53:09',12,sec_to_time(97),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-08-11 09:34:13',3,sec_to_time(77)),</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-12-19 15:53:09</v>
+        <v>2022-08-11 09:34:13</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>08</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>34</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>53</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-03-27 08:18:08',17,sec_to_time(141),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-02-08 18:45:32',0,sec_to_time(102)),</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-03-27 08:18:08</v>
+        <v>2023-02-08 18:45:32</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>02</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>03</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>08</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-04-04 20:42:44',13,sec_to_time(161),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2022-03-12 21:44:33',4,sec_to_time(136)),</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-04 20:42:44</v>
+        <v>2022-03-12 21:44:33</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>42</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2022-11-17 11:44:27',10,sec_to_time(86),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-09-15 16:26:53',2,sec_to_time(176)),</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-17 11:44:27</v>
+        <v>2023-09-15 16:26:53</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>09</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>44</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2022-02-12 20:13:33',4,sec_to_time(75),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-08-05 10:57:14',0,sec_to_time(167)),</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-02-12 20:13:33</v>
+        <v>2023-08-05 10:57:14</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>08</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>02</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>05</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>57</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-02-17 21:23:52',18,sec_to_time(147),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-02-03 16:17:12',0,sec_to_time(77)),</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-17 21:23:52</v>
+        <v>2022-02-03 16:17:12</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>02</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>02</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>03</v>
       </c>
       <c r="K27" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>17</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
-      </c>
       <c r="M27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>23</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-03-20 12:56:18',21,sec_to_time(20),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-03-07 17:39:58',0,sec_to_time(133)),</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-20 12:56:18</v>
+        <v>2023-03-07 17:39:58</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I28" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
       <c r="J28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>03</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>07</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>39</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-04-06 12:23:16',21,sec_to_time(56),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2022-12-14 09:33:54',5,sec_to_time(92)),</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-06 12:23:16</v>
+        <v>2022-12-14 09:33:54</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>33</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>23</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2022-05-19 13:37:15',24,sec_to_time(151),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-07-14 18:50:45',2,sec_to_time(119)),</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-05-19 13:37:15</v>
+        <v>2023-07-14 18:50:45</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-02-09 14:02:13',1,sec_to_time(121)),</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>37</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-11-08 17:02:05',21,sec_to_time(59),1),</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
       <c r="C31" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-08 17:02:05</v>
+        <v>2023-02-09 14:02:13</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>02</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-02-07 21:34:27',0,sec_to_time(173)),</v>
+      </c>
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>08</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>02</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2022-06-05 17:21:25',15,sec_to_time(176),1),</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
       <c r="C32" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-06-05 17:21:25</v>
+        <v>2022-02-07 21:34:27</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I32" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>02</v>
+      </c>
       <c r="J32" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>07</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>34</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-02-19 13:37:00',6,sec_to_time(173),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-12-28 21:06:02',3,sec_to_time(55)),</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-02-19 13:37:00</v>
+        <v>2023-12-28 21:06:02</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>02</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>37</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-10-16 12:32:59',14,sec_to_time(52),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-04-25 11:22:29',4,sec_to_time(106)),</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-10-16 12:32:59</v>
+        <v>2022-04-25 11:22:29</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-08-18 20:28:09',25,sec_to_time(66),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2022-10-02 09:17:29',4,sec_to_time(121)),</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-18 20:28:09</v>
+        <v>2022-10-02 09:17:29</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>02</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>09</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2022-07-01 17:02:59',15,sec_to_time(83),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2022-08-11 17:29:44',5,sec_to_time(41)),</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-07-01 17:02:59</v>
+        <v>2022-08-11 17:29:44</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I36" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>08</v>
+      </c>
       <c r="J36" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>07</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>01</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>02</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-05-28 17:56:25',18,sec_to_time(14),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2022-03-18 13:39:39',4,sec_to_time(111)),</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-28 17:56:25</v>
+        <v>2022-03-18 13:39:39</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>18</v>
       </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
-      </c>
       <c r="K37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>39</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2022-09-23 21:01:43',23,sec_to_time(177),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2022-11-05 20:12:31',4,sec_to_time(183)),</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-09-23 21:01:43</v>
+        <v>2022-11-05 20:12:31</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
       <c r="J38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>05</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>01</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-11-17 10:55:15',8,sec_to_time(34),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-10-02 10:38:23',2,sec_to_time(174)),</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-11-17 10:55:15</v>
+        <v>2023-10-02 10:38:23</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I39" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
       <c r="J39" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>02</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>38</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-09-26 19:13:35',9,sec_to_time(93),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-01-08 19:26:40',4,sec_to_time(102)),</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno1')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-26 19:13:35</v>
+        <v>2023-01-08 19:26:40</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I40" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>01</v>
+      </c>
       <c r="J40" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>08</v>
       </c>
       <c r="K40" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>26</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>19</v>
-      </c>
       <c r="M40" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-05-07 20:26:04',10,sec_to_time(128),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-03-04 20:29:25',0,sec_to_time(188)),</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno2')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-07 20:26:04</v>
+        <v>2023-03-04 20:29:25</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="6"/>
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
       <c r="J41" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>04</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>07</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-05-08 09:09:31',25,sec_to_time(44),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-03-20 21:16:40',0,sec_to_time(28)),</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno3')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-08 09:09:31</v>
+        <v>2023-03-20 21:16:40</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I42" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
       <c r="J42" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>09</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>09</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2022-11-25 08:13:47',1,sec_to_time(71),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-06-10 14:34:17',1,sec_to_time(30)),</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno4')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-11-25 08:13:47</v>
+        <v>2022-06-10 14:34:17</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
@@ -6250,495 +6138,406 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I43" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>06</v>
+      </c>
       <c r="J43" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>34</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2022-04-23 12:41:56',2,sec_to_time(158)),</v>
+      </c>
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="N43" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2022-08-06 14:41:32',19,sec_to_time(121),1),</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno5')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-08-06 14:41:32</v>
+        <v>2022-04-23 12:41:56</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <f t="shared" ca="1" si="8"/>
         <v>2022</v>
       </c>
+      <c r="I44" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
       <c r="J44" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>41</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>41</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2022-02-04 08:36:50',21,sec_to_time(108),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2022-11-21 19:29:19',2,sec_to_time(50)),</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno6')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-02-04 08:36:50</v>
+        <v>2022-11-21 19:29:19</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>21</v>
       </c>
-      <c r="G45">
-        <f t="shared" ca="1" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="H45">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>02</v>
-      </c>
       <c r="K45" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-04-24 13:54:55',25,sec_to_time(187),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-03-17 19:51:31',4,sec_to_time(52)),</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno7')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-24 13:54:55</v>
+        <v>2023-03-17 19:51:31</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <f t="shared" ca="1" si="8"/>
         <v>2023</v>
       </c>
+      <c r="I46" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
       <c r="J46" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>51</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2022-06-04 20:11:00',17,sec_to_time(192),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-08-16 08:21:12',2,sec_to_time(83)),</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno8')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2022-06-04 20:11:00</v>
+        <v>2023-08-16 08:21:12</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>08</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>08</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-11-28 10:53:31',13,sec_to_time(40),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2022-07-13 10:48:25',1,sec_to_time(189)),</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno9')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-11-28 10:53:31</v>
+        <v>2022-07-13 10:48:25</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>13</v>
       </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
-      </c>
       <c r="K48" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>48</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>53</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-08-21 12:10:34',4,sec_to_time(15),1),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2022-06-13 10:20:31',3,sec_to_time(34)),</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno10')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-21 12:10:34</v>
+        <v>2022-06-13 10:20:31</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>06</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-11-10 21:18:22',23,sec_to_time(175),2),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-10-01 19:27:25',5,sec_to_time(26)),</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno11')</v>
+        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
+        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-11-10 21:18:22</v>
+        <v>2022-10-01 19:27:25</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2022</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>01</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2022-05-09 18:19:33',23,sec_to_time(113),2),</v>
-      </c>
-      <c r="B51" t="s">
+        <f t="shared" ca="1" si="12"/>
         <v>25</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="2"/>
-        <v>(select id_usuario from usuario where nombre_usuario='Alumno12')</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="3"/>
-        <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>2022-05-09 18:19:33</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ca="1" si="6"/>
-        <v>113</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>09</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BBDD/GeneradorPersonas.xlsx
+++ b/BBDD/GeneradorPersonas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\produccion\Desktop\RetoDam1\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\DAMT108\Desktop\RetoFinalCurso1\BBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21823C-A985-4798-A63D-CA1933F16CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserPersona" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
     <sheet name="Calculo" sheetId="2" r:id="rId3"/>
     <sheet name="RestoDiv" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -221,9 +233,6 @@
     <t>Adiez</t>
   </si>
   <si>
-    <t>puntos</t>
-  </si>
-  <si>
     <t>tiempo</t>
   </si>
   <si>
@@ -294,12 +303,15 @@
   </si>
   <si>
     <t>insert into ajuste (usuario,sonido) values</t>
+  </si>
+  <si>
+    <t>aciertos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,18 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,83 +664,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="123" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A15" si="0">CONCATENATE("('",E4,"',md5(",F4,"),'",G4,"'),")</f>
         <v>('Alumno1',md5(12345),'AliasAl1'),</v>
@@ -740,7 +750,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),'NomAlumno1','Ap1Alumno1','Ap2Alumno1','12345678A',1,19840315,0,'email1@email.es'),</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE("(",H4,",",0,"),")</f>
@@ -777,7 +787,7 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>19840315</v>
       </c>
       <c r="O4">
@@ -787,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno2',md5(12345),'AliasAl2'),</v>
@@ -797,7 +807,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),'NomAlumno2','Ap1Alumno2','Ap2Alumno2','12345678B',2,19830409,0,'email2@email.es'),</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D21" si="3">CONCATENATE("(",H5,",",0,"),")</f>
@@ -834,7 +844,7 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>19830409</v>
       </c>
       <c r="O5">
@@ -844,7 +854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno3',md5(12345),'AliasAl3'),</v>
@@ -854,7 +864,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),'NomAlumno3','Ap1Alumno3','Ap2Alumno3','12345678C',3,19990112,0,'email3@email.es'),</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="3"/>
@@ -891,7 +901,7 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>19990112</v>
       </c>
       <c r="O6">
@@ -901,7 +911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno4',md5(12345),'AliasAl4'),</v>
@@ -911,7 +921,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),'NomAlumno4','Ap1Alumno4','Ap2Alumno4','12345678D',4,20000213,0,'email4@email.es'),</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="3"/>
@@ -948,7 +958,7 @@
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>20000213</v>
       </c>
       <c r="O7">
@@ -958,7 +968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno5',md5(12345),'AliasAl5'),</v>
@@ -968,7 +978,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),'NomAlumno5','Ap1Alumno5','Ap2Alumno5','12345678E',1,20000314,0,'email5@email.es'),</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="3"/>
@@ -1005,7 +1015,7 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>20000314</v>
       </c>
       <c r="O8">
@@ -1015,7 +1025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno6',md5(12345),'AliasAl6'),</v>
@@ -1025,7 +1035,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),'NomAlumno6','Ap1Alumno6','Ap2Alumno6','12345678F',2,20000415,0,'email6@email.es'),</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="3"/>
@@ -1062,7 +1072,7 @@
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>20000415</v>
       </c>
       <c r="O9">
@@ -1072,7 +1082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno7',md5(12345),'AliasAl7'),</v>
@@ -1082,7 +1092,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),'NomAlumno7','Ap1Alumno7','Ap2Alumno7','12345678G',3,20000516,0,'email7@email.es'),</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="3"/>
@@ -1119,7 +1129,7 @@
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>20000516</v>
       </c>
       <c r="O10">
@@ -1129,7 +1139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno8',md5(12345),'AliasAl8'),</v>
@@ -1139,7 +1149,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),'NomAlumno8','Ap1Alumno8','Ap2Alumno8','12345678H',4,20000617,0,'email8@email.es'),</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="3"/>
@@ -1176,7 +1186,7 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>20000617</v>
       </c>
       <c r="O11">
@@ -1186,7 +1196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno9',md5(12345),'AliasAl9'),</v>
@@ -1196,7 +1206,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),'NomAlumno9','Ap1Alumno9','Ap2Alumno9','12345678I',1,20000718,0,'email9@email.es'),</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="3"/>
@@ -1233,7 +1243,7 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>20000718</v>
       </c>
       <c r="O12">
@@ -1243,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno10',md5(12345),'AliasAl10'),</v>
@@ -1253,7 +1263,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),'NomAlumno10','Ap1Alumno10','Ap2Alumno10','12345678J',2,20000819,0,'email10@email.es'),</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
@@ -1290,7 +1300,7 @@
       <c r="M13">
         <v>2</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>20000819</v>
       </c>
       <c r="O13">
@@ -1300,7 +1310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno11',md5(12346),'AliasAl11'),</v>
@@ -1310,7 +1320,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),'NomAlumno11','Ap1Alumno11','Ap2Alumno11','12345678K',3,20000920,0,'email11@email.es'),</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
@@ -1347,7 +1357,7 @@
       <c r="M14">
         <v>3</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>20000920</v>
       </c>
       <c r="O14">
@@ -1357,7 +1367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>('Alumno12',md5(12347),'AliasAl12'),</v>
@@ -1367,7 +1377,7 @@
         <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),'NomAlumno12','Ap1Alumno12','Ap2Alumno12','12345678L',4,20001021,0,'email12@email.es'),</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="3"/>
@@ -1404,7 +1414,7 @@
       <c r="M15">
         <v>4</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>20001021</v>
       </c>
       <c r="O15">
@@ -1414,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f t="shared" si="3"/>
         <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),0),</v>
@@ -1427,7 +1437,7 @@
         <v>(select id_usuario from usuario where nombre_usuario='Cbarrios')</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" t="str">
         <f t="shared" si="3"/>
         <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),0),</v>
@@ -1440,7 +1450,7 @@
         <v>(select id_usuario from usuario where nombre_usuario='Despinosa')</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
         <f t="shared" si="3"/>
         <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),0),</v>
@@ -1453,7 +1463,7 @@
         <v>(select id_usuario from usuario where nombre_usuario='Rgutierrez')</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
         <f t="shared" si="3"/>
         <v>((select id_usuario from usuario where nombre_usuario='Adiez'),0),</v>
@@ -1466,13 +1476,13 @@
         <v>(select id_usuario from usuario where nombre_usuario='Adiez')</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
         <f t="shared" si="3"/>
         <v>((select id_usuario from usuario where nombre_usuario='Amartinez'),0),</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -1485,55 +1495,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="244.28515625" customWidth="1"/>
+    <col min="1" max="1" width="244.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2">
         <v>80</v>
       </c>
@@ -1544,52 +1554,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",sec_to_time(",G4,")),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-01-25 15:54:05',17,sec_to_time(7)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-03-18 21:08:34',15,sec_to_time(29)),</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1602,17 +1612,17 @@
         <f>CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B4,"')")</f>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f ca="1">CONCATENATE(H4,"-",I4,"-",J4," ",K4,":",L4,":",M4)</f>
-        <v>2023-01-25 15:54:05</v>
-      </c>
-      <c r="F4">
+        <v>2023-03-18 21:08:34</v>
+      </c>
+      <c r="F4" s="8">
         <f ca="1">RANDBETWEEN(1,25)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(5,$G$2)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN($H$2,$H$2)</f>
@@ -1620,29 +1630,29 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,$I$2),"00")</f>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J5" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>54</v>
+        <v>08</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A51" ca="1" si="1">CONCATENATE("(",C5,",",D5,",'",E5,"',",F5,",sec_to_time(",G5,")),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-04-16 10:54:03',20,sec_to_time(13)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-04-22 15:55:00',24,sec_to_time(41)),</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -1655,17 +1665,17 @@
         <f t="shared" ref="D5:D51" si="3">CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B5,"')")</f>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E19" ca="1" si="4">CONCATENATE(H5,"-",I5,"-",J5," ",K5,":",L5,":",M5)</f>
-        <v>2023-04-16 10:54:03</v>
+        <v>2023-04-22 15:55:00</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F51" ca="1" si="5">RANDBETWEEN(1,25)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G51" ca="1" si="6">RANDBETWEEN(5,$G$2)</f>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H51" ca="1" si="7">RANDBETWEEN($H$2,$H$2)</f>
@@ -1677,25 +1687,25 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K51" ca="1" si="9">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ref="L5:M20" ca="1" si="10">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-01-19 13:13:45',1,sec_to_time(21)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-05-12 21:02:15',24,sec_to_time(37)),</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -1708,17 +1718,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-19 13:13:45</v>
+        <v>2023-05-12 21:02:15</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
@@ -1726,29 +1736,29 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>05</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>02</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-04-02 09:49:33',21,sec_to_time(74)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-02-23 14:06:49',23,sec_to_time(80)),</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -1761,17 +1771,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-04-02 09:49:33</v>
+        <v>2023-02-23 14:06:49</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
@@ -1779,29 +1789,29 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>02</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J51" ca="1" si="11">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>02</v>
+        <v>23</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>06</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-09-12 09:21:23',24,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-01-17 14:31:03',7,sec_to_time(64)),</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1814,17 +1824,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-12 09:21:23</v>
+        <v>2023-01-17 14:31:03</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
@@ -1832,29 +1842,29 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>01</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-09-02 14:32:44',24,sec_to_time(44)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-06-23 17:22:48',4,sec_to_time(76)),</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1867,17 +1877,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-02 14:32:44</v>
+        <v>2023-06-23 17:22:48</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
@@ -1885,29 +1895,29 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>23</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-07-18 09:36:49',10,sec_to_time(45)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-04-24 16:28:22',25,sec_to_time(11)),</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1920,17 +1930,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-07-18 09:36:49</v>
+        <v>2023-04-24 16:28:22</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
@@ -1938,29 +1948,29 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>04</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>16</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-08-01 13:01:22',19,sec_to_time(80)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-03-09 19:44:46',14,sec_to_time(73)),</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1973,47 +1983,47 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-01 13:01:22</v>
+        <v>2023-03-09 19:44:46</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="7"/>
+        <v>2023</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>03</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>19</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>08</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>01</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>01</v>
+        <v>44</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-02-14 18:59:12',15,sec_to_time(32)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-05-21 18:50:40',9,sec_to_time(54)),</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2026,17 +2036,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-14 18:59:12</v>
+        <v>2023-05-21 18:50:40</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
@@ -2044,11 +2054,11 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2056,17 +2066,17 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-08-03 10:35:57',4,sec_to_time(14)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-08-12 08:25:15',23,sec_to_time(58)),</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2079,17 +2089,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-03 10:35:57</v>
+        <v>2023-08-12 08:25:15</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
@@ -2101,25 +2111,25 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>03</v>
+        <v>12</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>08</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-11-15 20:40:07',21,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-04-19 10:04:19',16,sec_to_time(16)),</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2132,17 +2142,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-11-15 20:40:07</v>
+        <v>2023-04-19 10:04:19</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
@@ -2150,29 +2160,29 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>04</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>04</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-12-23 21:41:04',6,sec_to_time(6)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-06-01 12:17:32',9,sec_to_time(42)),</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2185,17 +2195,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-12-23 21:41:04</v>
+        <v>2023-06-01 12:17:32</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
@@ -2203,29 +2213,29 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>12</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>21</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-09-23 16:42:27',2,sec_to_time(73)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-05-13 16:51:11',18,sec_to_time(20)),</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2238,17 +2248,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-09-23 16:42:27</v>
+        <v>2023-05-13 16:51:11</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
@@ -2256,11 +2266,11 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>05</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2268,17 +2278,17 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-03-01 14:32:10',9,sec_to_time(11)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-08-26 19:06:22',5,sec_to_time(69)),</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2291,17 +2301,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-01 14:32:10</v>
+        <v>2023-08-26 19:06:22</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
@@ -2309,29 +2319,29 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>08</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>01</v>
+        <v>26</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>06</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-08-24 19:19:57',25,sec_to_time(59)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-11-18 15:01:49',24,sec_to_time(72)),</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2344,17 +2354,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-08-24 19:19:57</v>
+        <v>2023-11-18 15:01:49</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
@@ -2362,29 +2372,29 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>11</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>01</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-05-14 14:51:39',8,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-02-22 13:38:14',23,sec_to_time(53)),</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -2397,17 +2407,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-05-14 14:51:39</v>
+        <v>2023-02-22 13:38:14</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
@@ -2415,29 +2425,29 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-11-07 18:11:44',20,sec_to_time(32)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-08-11 17:22:38',7,sec_to_time(17)),</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -2450,17 +2460,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" ref="E20:E51" ca="1" si="12">CONCATENATE(H20,"-",I20,"-",J20," ",K20,":",L20,":",M20)</f>
-        <v>2023-11-07 18:11:44</v>
+        <v>2023-08-11 17:22:38</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
@@ -2468,29 +2478,29 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>11</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>07</v>
-      </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-12-03 13:51:05',2,sec_to_time(75)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-11-08 12:22:36',25,sec_to_time(6)),</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -2503,17 +2513,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-12-03 13:51:05</v>
+      <c r="E21" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-11-08 12:22:36</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
@@ -2521,29 +2531,29 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>12</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>03</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ref="L21:M51" ca="1" si="13">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-04-20 14:07:36',19,sec_to_time(38)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-03-15 10:04:22',1,sec_to_time(36)),</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -2556,17 +2566,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-04-20 14:07:36</v>
+      <c r="E22" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-03-15 10:04:22</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
@@ -2574,29 +2584,29 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>07</v>
+        <v>04</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-06-14 17:29:11',13,sec_to_time(53)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-11-03 16:30:50',13,sec_to_time(62)),</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -2609,9 +2619,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-06-14 17:29:11</v>
+      <c r="E23" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-11-03 16:30:50</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
@@ -2619,7 +2629,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
@@ -2627,29 +2637,29 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>11</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>03</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-11-16 09:37:03',18,sec_to_time(25)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-02-13 19:21:54',6,sec_to_time(22)),</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2662,17 +2672,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-11-16 09:37:03</v>
+      <c r="E24" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-13 19:21:54</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
@@ -2680,29 +2690,29 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>02</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>19</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-06-09 14:55:09',2,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-04-06 16:54:38',25,sec_to_time(61)),</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -2715,17 +2725,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-06-09 14:55:09</v>
+      <c r="E25" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-04-06 16:54:38</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
@@ -2733,29 +2743,29 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>06</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>09</v>
-      </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-11-15 18:28:49',11,sec_to_time(78)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-12-11 16:33:20',11,sec_to_time(63)),</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2768,9 +2778,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-11-15 18:28:49</v>
+      <c r="E26" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-12-11 16:33:20</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
@@ -2778,7 +2788,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
@@ -2786,29 +2796,29 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>11</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>15</v>
-      </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-06-15 17:29:01',7,sec_to_time(23)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-11-17 17:28:27',14,sec_to_time(8)),</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -2821,17 +2831,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-06-15 17:29:01</v>
+      <c r="E27" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-11-17 17:28:27</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
@@ -2839,11 +2849,11 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>06</v>
+        <v>11</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2851,17 +2861,17 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-10-15 17:32:04',17,sec_to_time(28)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-02-18 21:39:24',12,sec_to_time(18)),</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -2874,17 +2884,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-10-15 17:32:04</v>
+      <c r="E28" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-18 21:39:24</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
@@ -2892,29 +2902,29 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-02-11 19:17:14',19,sec_to_time(46)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-12-19 21:52:28',19,sec_to_time(79)),</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -2927,9 +2937,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-02-11 19:17:14</v>
+      <c r="E29" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-12-19 21:52:28</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
@@ -2937,7 +2947,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
@@ -2945,29 +2955,29 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>12</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-09-15 21:00:06',7,sec_to_time(23)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-12-11 15:51:24',11,sec_to_time(22)),</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2980,17 +2990,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-09-15 21:00:06</v>
+      <c r="E30" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-12-11 15:51:24</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
@@ -2998,29 +3008,29 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>12</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>15</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>21</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>00</v>
+        <v>51</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-02-23 10:39:52',18,sec_to_time(15)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-06-03 17:53:27',10,sec_to_time(10)),</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -3033,17 +3043,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-02-23 10:39:52</v>
+      <c r="E31" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-06-03 17:53:27</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
@@ -3051,29 +3061,29 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>03</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-09-13 19:16:43',3,sec_to_time(25)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-08-27 19:24:25',13,sec_to_time(24)),</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -3086,17 +3096,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-09-13 19:16:43</v>
+      <c r="E32" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-08-27 19:24:25</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
@@ -3104,11 +3114,11 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3116,17 +3126,17 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-03-28 11:08:45',9,sec_to_time(13)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-02-17 11:48:44',9,sec_to_time(70)),</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3139,9 +3149,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-03-28 11:08:45</v>
+      <c r="E33" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-17 11:48:44</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
@@ -3149,7 +3159,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
@@ -3157,11 +3167,11 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3169,17 +3179,17 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>08</v>
+        <v>48</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-10-21 09:46:57',7,sec_to_time(59)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-04-17 18:50:40',18,sec_to_time(35)),</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -3192,17 +3202,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-10-21 09:46:57</v>
+      <c r="E34" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-04-17 18:50:40</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
@@ -3210,29 +3220,29 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>04</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>18</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-04-08 10:49:31',9,sec_to_time(10)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-07-16 11:08:37',25,sec_to_time(12)),</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -3245,17 +3255,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E35" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-04-08 10:49:31</v>
+      <c r="E35" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-07-16 11:08:37</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
@@ -3263,29 +3273,29 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>16</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>08</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-07-10 18:18:29',21,sec_to_time(12)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios'),'2023-02-19 17:51:27',12,sec_to_time(38)),</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -3298,17 +3308,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E36" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-07-10 18:18:29</v>
+      <c r="E36" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-19 17:51:27</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
@@ -3316,29 +3326,29 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-11-28 15:49:50',2,sec_to_time(49)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa'),'2023-02-07 14:58:13',19,sec_to_time(23)),</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -3351,17 +3361,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E37" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-11-28 15:49:50</v>
+      <c r="E37" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-07 14:58:13</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
@@ -3369,29 +3379,29 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>02</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>07</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-07-09 11:43:37',10,sec_to_time(11)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez'),'2023-03-13 11:21:20',1,sec_to_time(62)),</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
@@ -3404,17 +3414,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E38" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-07-09 11:43:37</v>
+      <c r="E38" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-03-13 11:21:20</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
@@ -3422,11 +3432,11 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>07</v>
+        <v>03</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>09</v>
+        <v>13</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3434,17 +3444,17 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-12-08 17:28:08',12,sec_to_time(77)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez'),'2023-05-25 08:57:07',10,sec_to_time(39)),</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -3457,17 +3467,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E39" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-12-08 17:28:08</v>
+      <c r="E39" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-05-25 08:57:07</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
@@ -3475,29 +3485,29 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>05</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>08</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-08-25 13:31:41',3,sec_to_time(44)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1'),'2023-05-04 13:57:47',25,sec_to_time(9)),</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -3510,17 +3520,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E40" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-08-25 13:31:41</v>
+      <c r="E40" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-05-04 13:57:47</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
@@ -3528,11 +3538,11 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>05</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>04</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3540,17 +3550,17 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-10-27 16:43:52',14,sec_to_time(31)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2'),'2023-02-12 18:16:02',18,sec_to_time(42)),</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -3563,17 +3573,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E41" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-10-27 16:43:52</v>
+      <c r="E41" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-02-12 18:16:02</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
@@ -3581,29 +3591,29 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-03-20 18:15:50',6,sec_to_time(15)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3'),'2023-12-12 11:46:06',20,sec_to_time(55)),</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -3616,17 +3626,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E42" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-03-20 18:15:50</v>
+      <c r="E42" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-12-12 11:46:06</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
@@ -3634,29 +3644,29 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>12</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-03-24 20:57:31',5,sec_to_time(50)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4'),'2023-01-07 11:01:47',24,sec_to_time(25)),</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -3669,17 +3679,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E43" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-03-24 20:57:31</v>
+      <c r="E43" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-01-07 11:01:47</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
@@ -3687,29 +3697,29 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>07</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>01</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-12-19 17:30:47',7,sec_to_time(6)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5'),'2023-06-07 14:37:16',6,sec_to_time(29)),</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -3722,17 +3732,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E44" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-12-19 17:30:47</v>
+      <c r="E44" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-06-07 14:37:16</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
@@ -3740,29 +3750,29 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>06</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>07</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-02-08 09:45:28',16,sec_to_time(55)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6'),'2023-06-05 14:58:21',3,sec_to_time(55)),</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -3775,13 +3785,13 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E45" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-02-08 09:45:28</v>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-06-05 14:58:21</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="6"/>
@@ -3793,29 +3803,29 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>05</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-12-23 18:49:46',18,sec_to_time(11)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7'),'2023-03-06 09:22:58',15,sec_to_time(40)),</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3828,17 +3838,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E46" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-12-23 18:49:46</v>
+      <c r="E46" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-03-06 09:22:58</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
@@ -3846,29 +3856,29 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>03</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>06</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>09</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-08-22 11:43:07',16,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8'),'2023-05-20 13:39:58',10,sec_to_time(50)),</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -3881,17 +3891,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E47" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-08-22 11:43:07</v>
+      <c r="E47" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-05-20 13:39:58</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
@@ -3899,29 +3909,29 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>08</v>
+        <v>05</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-01-08 20:56:47',19,sec_to_time(53)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9'),'2023-09-14 17:58:14',12,sec_to_time(54)),</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -3934,17 +3944,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E48" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-01-08 20:56:47</v>
+      <c r="E48" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-09-14 17:58:14</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
@@ -3952,29 +3962,29 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>09</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>14</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-10-26 09:25:02',12,sec_to_time(77)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10'),'2023-07-17 14:41:04',11,sec_to_time(5)),</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -3987,17 +3997,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E49" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-10-26 09:25:02</v>
+      <c r="E49" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-07-17 14:41:04</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
@@ -4005,29 +4015,29 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>07</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-09-18 18:14:26',18,sec_to_time(39)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11'),'2023-04-17 19:19:13',24,sec_to_time(31)),</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -4040,17 +4050,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E50" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-09-18 18:14:26</v>
+      <c r="E50" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-04-17 19:19:13</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
@@ -4058,29 +4068,29 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>09</v>
+        <v>04</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-01-28 19:30:25',4,sec_to_time(62)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12'),'2023-12-09 14:40:09',19,sec_to_time(80)),</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -4093,17 +4103,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'Calcula25' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E51" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2023-01-28 19:30:25</v>
+      <c r="E51" s="3" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2023-12-09 14:40:09</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="7"/>
@@ -4111,23 +4121,23 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>12</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>09</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>09</v>
       </c>
     </row>
   </sheetData>
@@ -4137,41 +4147,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="255.5546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="8" max="13" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="8" max="13" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2">
         <v>80</v>
       </c>
@@ -4182,52 +4192,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
         <f ca="1">CONCATENATE("(",C4,",",D4,",'",E4,"',",F4,",sec_to_time(",G4,")),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-02-09 11:15:32',1,sec_to_time(36)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-02-28 08:13:40',2,sec_to_time(56)),</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -4240,17 +4250,17 @@
         <f>CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B4,"')")</f>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f ca="1">CONCATENATE(H4,"-",I4,"-",J4," ",K4,":",L4,":",M4)</f>
-        <v>2023-02-09 11:15:32</v>
+        <v>2023-02-28 08:13:40</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(25,$G$2)</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN($H$2,$H$2)</f>
@@ -4262,25 +4272,25 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J5" ca="1" si="0">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>09</v>
+        <v>28</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>11</v>
+        <v>08</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A51" ca="1" si="1">CONCATENATE("(",C5,",",D5,",'",E5,"',",F5,",sec_to_time(",G5,")),")</f>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-03-15 12:47:34',2,sec_to_time(56)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-02-23 10:37:33',0,sec_to_time(32)),</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -4293,17 +4303,17 @@
         <f t="shared" ref="D5:D51" si="3">CONCATENATE("(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = '",$D$3,"' and nombre_usuario = '",B5,"')")</f>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E51" ca="1" si="4">CONCATENATE(H5,"-",I5,"-",J5," ",K5,":",L5,":",M5)</f>
-        <v>2023-03-15 12:47:34</v>
+        <v>2023-02-23 10:37:33</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F51" ca="1" si="5">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G51" ca="1" si="6">RANDBETWEEN(25,$G$2)</f>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H51" ca="1" si="7">RANDBETWEEN($H$2,$H$2)</f>
@@ -4311,29 +4321,29 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I51" ca="1" si="8">TEXT(RANDBETWEEN(1,$I$2),"00")</f>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K51" ca="1" si="9">TEXT(RANDBETWEEN(8,21),"00")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ref="L5:M20" ca="1" si="10">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-01-05 08:08:33',4,sec_to_time(41)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-01-04 12:37:51',2,sec_to_time(71)),</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -4346,17 +4356,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-05 08:08:33</v>
+        <v>2023-01-04 12:37:51</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
@@ -4368,25 +4378,25 @@
       </c>
       <c r="J6" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,28),"00")</f>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>12</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>08</v>
+        <v>37</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-01-07 16:16:35',3,sec_to_time(40)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-03-07 18:41:02',4,sec_to_time(60)),</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -4399,17 +4409,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-07 16:16:35</v>
+        <v>2023-03-07 18:41:02</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
@@ -4417,7 +4427,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J51" ca="1" si="11">TEXT(RANDBETWEEN(1,28),"00")</f>
@@ -4425,21 +4435,21 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-03-16 09:44:36',3,sec_to_time(34)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-01-21 20:06:40',1,sec_to_time(50)),</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -4452,17 +4462,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-16 09:44:36</v>
+        <v>2023-01-21 20:06:40</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
@@ -4470,29 +4480,29 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>20</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>06</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-01-25 14:44:23',3,sec_to_time(58)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-01-09 12:54:15',5,sec_to_time(65)),</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4505,17 +4515,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-25 14:44:23</v>
+        <v>2023-01-09 12:54:15</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
@@ -4527,25 +4537,25 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>09</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-03-20 14:18:41',4,sec_to_time(42)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-01-01 16:26:16',1,sec_to_time(28)),</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -4558,17 +4568,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-20 14:18:41</v>
+        <v>2023-01-01 16:26:16</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
@@ -4576,29 +4586,29 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>01</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-02-02 09:46:49',1,sec_to_time(37)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-01-26 17:40:29',2,sec_to_time(69)),</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -4611,17 +4621,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-02 09:46:49</v>
+        <v>2023-01-26 17:40:29</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
@@ -4629,29 +4639,29 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>26</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>17</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-03-02 08:52:02',2,sec_to_time(75)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-02-25 18:45:04',2,sec_to_time(49)),</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4664,9 +4674,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-02 08:52:02</v>
+        <v>2023-02-25 18:45:04</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
@@ -4674,7 +4684,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
@@ -4682,29 +4692,29 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>25</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>18</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-02-26 13:15:25',1,sec_to_time(76)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-02-23 17:46:05',4,sec_to_time(27)),</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -4717,17 +4727,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-26 13:15:25</v>
+        <v>2023-02-23 17:46:05</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
@@ -4739,25 +4749,25 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-01-11 08:52:20',5,sec_to_time(27)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-02-22 12:48:49',3,sec_to_time(70)),</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4770,17 +4780,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-11 08:52:20</v>
+        <v>2023-02-22 12:48:49</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
@@ -4788,29 +4798,29 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>08</v>
+        <v>12</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-02-02 11:57:19',3,sec_to_time(44)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-03-07 20:08:51',1,sec_to_time(74)),</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -4823,17 +4833,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-02 11:57:19</v>
+        <v>2023-03-07 20:08:51</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
@@ -4841,29 +4851,29 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>02</v>
+        <v>07</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>08</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-01-12 15:56:04',2,sec_to_time(42)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-01-17 09:42:16',3,sec_to_time(37)),</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -4876,17 +4886,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-12 15:56:04</v>
+        <v>2023-01-17 09:42:16</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
@@ -4898,25 +4908,25 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>09</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-03-13 13:10:48',5,sec_to_time(69)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-03-11 11:11:26',1,sec_to_time(43)),</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -4929,17 +4939,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-13 13:10:48</v>
+        <v>2023-03-11 11:11:26</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
@@ -4951,25 +4961,25 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-02-01 11:06:09',1,sec_to_time(80)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-03-13 19:30:05',3,sec_to_time(36)),</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -4982,17 +4992,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-01 11:06:09</v>
+        <v>2023-03-13 19:30:05</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
@@ -5000,29 +5010,29 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>01</v>
+        <v>13</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>06</v>
+        <v>30</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-01-17 10:40:53',0,sec_to_time(72)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-01-20 12:56:50',5,sec_to_time(58)),</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -5035,17 +5045,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-17 10:40:53</v>
+        <v>2023-01-20 12:56:50</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
@@ -5057,25 +5067,25 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-03-27 09:27:27',0,sec_to_time(60)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-02-01 14:43:37',3,sec_to_time(77)),</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -5088,17 +5098,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-27 09:27:27</v>
+        <v>2023-02-01 14:43:37</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
@@ -5106,29 +5116,29 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>01</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-02-26 15:42:52',2,sec_to_time(46)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-01-28 16:52:14',1,sec_to_time(34)),</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -5141,17 +5151,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-26 15:42:52</v>
+        <v>2023-01-28 16:52:14</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
@@ -5159,29 +5169,29 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ref="L21:M51" ca="1" si="12">TEXT(RANDBETWEEN(0,59),"00")</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-02-18 10:29:01',4,sec_to_time(41)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-02-04 10:35:23',3,sec_to_time(53)),</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -5194,17 +5204,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-18 10:29:01</v>
+        <v>2023-02-04 10:35:23</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
@@ -5216,7 +5226,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>04</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5224,17 +5234,17 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-03-23 21:24:27',1,sec_to_time(68)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-01-10 10:53:03',1,sec_to_time(76)),</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -5247,9 +5257,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-23 21:24:27</v>
+        <v>2023-01-10 10:53:03</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
@@ -5257,7 +5267,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
@@ -5265,29 +5275,29 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>03</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-01-04 12:48:37',5,sec_to_time(42)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-01-22 09:48:59',3,sec_to_time(69)),</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -5300,17 +5310,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-04 12:48:37</v>
+        <v>2023-01-22 09:48:59</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
@@ -5322,11 +5332,11 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>22</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>09</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5334,13 +5344,13 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-03-07 14:38:03',2,sec_to_time(28)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-01-15 14:10:50',5,sec_to_time(55)),</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -5353,17 +5363,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-07 14:38:03</v>
+        <v>2023-01-15 14:10:50</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
@@ -5371,11 +5381,11 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>15</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5383,17 +5393,17 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-03-27 21:57:17',4,sec_to_time(29)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-02-10 14:08:55',5,sec_to_time(45)),</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -5406,17 +5416,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-27 21:57:17</v>
+        <v>2023-02-10 14:08:55</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
@@ -5424,29 +5434,29 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>08</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-01-21 13:05:00',1,sec_to_time(58)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-01-28 14:37:25',2,sec_to_time(30)),</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -5459,17 +5469,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-21 13:05:00</v>
+        <v>2023-01-28 14:37:25</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
@@ -5481,25 +5491,25 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>05</v>
+        <v>37</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-01-25 09:01:56',3,sec_to_time(42)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-02-25 14:28:56',3,sec_to_time(60)),</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -5512,9 +5522,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-25 09:01:56</v>
+        <v>2023-02-25 14:28:56</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
@@ -5522,7 +5532,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
@@ -5530,7 +5540,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -5538,21 +5548,21 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>14</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>01</v>
+        <v>28</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-03-16 11:16:38',3,sec_to_time(65)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-02-25 13:34:41',0,sec_to_time(60)),</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -5565,17 +5575,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E29" s="4" t="str">
+      <c r="E29" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-16 11:16:38</v>
+        <v>2023-02-25 13:34:41</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
@@ -5583,29 +5593,29 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-03-17 15:21:28',4,sec_to_time(71)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-02-09 18:07:59',3,sec_to_time(48)),</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5618,17 +5628,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-17 15:21:28</v>
+        <v>2023-02-09 18:07:59</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
@@ -5636,29 +5646,29 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>09</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>07</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-01-08 15:03:57',4,sec_to_time(51)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-01-27 16:01:03',4,sec_to_time(29)),</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -5671,9 +5681,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-08 15:03:57</v>
+        <v>2023-01-27 16:01:03</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
@@ -5681,7 +5691,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
@@ -5693,25 +5703,25 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>08</v>
+        <v>27</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>01</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>03</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-01-07 11:00:52',5,sec_to_time(69)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-02-16 10:15:06',4,sec_to_time(39)),</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -5724,17 +5734,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-07 11:00:52</v>
+        <v>2023-02-16 10:15:06</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
@@ -5742,29 +5752,29 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>07</v>
+        <v>16</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>00</v>
+        <v>15</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-01-06 09:28:19',3,sec_to_time(49)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-01-20 10:21:40',5,sec_to_time(49)),</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -5777,13 +5787,13 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E33" s="4" t="str">
+      <c r="E33" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-06 09:28:19</v>
+        <v>2023-01-20 10:21:40</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
@@ -5799,25 +5809,25 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>20</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>10</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-01-17 19:40:37',4,sec_to_time(48)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-02-13 20:12:47',2,sec_to_time(79)),</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -5830,17 +5840,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-17 19:40:37</v>
+        <v>2023-02-13 20:12:47</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
@@ -5848,29 +5858,29 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-01-25 16:14:43',0,sec_to_time(71)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-02-01 15:20:28',4,sec_to_time(25)),</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -5883,17 +5893,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E35" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-25 16:14:43</v>
+        <v>2023-02-01 15:20:28</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
@@ -5901,29 +5911,29 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>01</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
       <c r="K35" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-02-04 14:34:48',3,sec_to_time(65)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Cbarrios'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios'),'2023-01-22 13:39:02',4,sec_to_time(28)),</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -5936,17 +5946,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Cbarrios')</v>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-04 14:34:48</v>
+        <v>2023-01-22 13:39:02</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
@@ -5954,29 +5964,29 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>02</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>04</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-03-05 16:24:08',1,sec_to_time(30)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Despinosa'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa'),'2023-01-06 14:54:39',5,sec_to_time(53)),</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -5989,17 +5999,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Despinosa')</v>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-05 16:24:08</v>
+        <v>2023-01-06 14:54:39</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
@@ -6007,29 +6017,29 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-03-18 18:37:38',5,sec_to_time(30)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Rgutierrez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez'),'2023-02-03 20:52:41',4,sec_to_time(41)),</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
@@ -6042,17 +6052,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Rgutierrez')</v>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-18 18:37:38</v>
+        <v>2023-02-03 20:52:41</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
@@ -6060,29 +6070,29 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>03</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
-      </c>
       <c r="K38" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-03-21 09:44:01',3,sec_to_time(73)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Adiez'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez'),'2023-03-08 12:30:40',0,sec_to_time(62)),</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -6095,17 +6105,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Adiez')</v>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-21 09:44:01</v>
+        <v>2023-03-08 12:30:40</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
@@ -6117,25 +6127,25 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>08</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>09</v>
+        <v>12</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-02-28 15:26:39',0,sec_to_time(30)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno1'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1'),'2023-02-24 18:48:59',3,sec_to_time(26)),</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -6148,17 +6158,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno1')</v>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E40" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-28 15:26:39</v>
+        <v>2023-02-24 18:48:59</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
@@ -6170,25 +6180,25 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-02-06 11:45:34',5,sec_to_time(70)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno2'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2'),'2023-02-02 19:24:10',0,sec_to_time(50)),</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -6201,17 +6211,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno2')</v>
       </c>
-      <c r="E41" s="4" t="str">
+      <c r="E41" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-06 11:45:34</v>
+        <v>2023-02-02 19:24:10</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
@@ -6223,25 +6233,25 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-02-04 20:57:11',1,sec_to_time(34)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno3'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3'),'2023-03-24 21:48:57',1,sec_to_time(73)),</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -6254,9 +6264,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno3')</v>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-02-04 20:57:11</v>
+        <v>2023-03-24 21:48:57</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
@@ -6264,7 +6274,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
@@ -6272,29 +6282,29 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>04</v>
+        <v>24</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>57</v>
       </c>
-      <c r="M42" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-03-26 19:05:57',0,sec_to_time(71)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno4'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4'),'2023-02-20 08:22:18',3,sec_to_time(68)),</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -6307,17 +6317,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno4')</v>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E43" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-26 19:05:57</v>
+        <v>2023-02-20 08:22:18</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
@@ -6325,29 +6335,29 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>08</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>05</v>
+        <v>22</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-03-15 12:24:25',3,sec_to_time(49)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno5'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5'),'2023-03-07 08:31:07',1,sec_to_time(29)),</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -6360,17 +6370,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno5')</v>
       </c>
-      <c r="E44" s="4" t="str">
+      <c r="E44" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-15 12:24:25</v>
+        <v>2023-03-07 08:31:07</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
@@ -6382,25 +6392,25 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>07</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>08</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-01-06 19:22:17',1,sec_to_time(41)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno6'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6'),'2023-03-28 15:51:15',5,sec_to_time(74)),</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -6413,17 +6423,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno6')</v>
       </c>
-      <c r="E45" s="4" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-06 19:22:17</v>
+        <v>2023-03-28 15:51:15</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="7"/>
@@ -6431,29 +6441,29 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>06</v>
+        <v>28</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-01-26 11:58:39',2,sec_to_time(52)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno7'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7'),'2023-01-13 10:24:45',3,sec_to_time(51)),</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -6466,17 +6476,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno7')</v>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E46" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-26 11:58:39</v>
+        <v>2023-01-13 10:24:45</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
@@ -6488,25 +6498,25 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-03-14 11:18:36',3,sec_to_time(36)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno8'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8'),'2023-03-26 20:27:17',3,sec_to_time(69)),</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -6519,9 +6529,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno8')</v>
       </c>
-      <c r="E47" s="4" t="str">
+      <c r="E47" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-14 11:18:36</v>
+        <v>2023-03-26 20:27:17</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
@@ -6529,7 +6539,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
@@ -6541,25 +6551,25 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-03-23 12:12:30',0,sec_to_time(32)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno9'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9'),'2023-03-09 18:16:31',0,sec_to_time(38)),</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -6572,9 +6582,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno9')</v>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E48" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-23 12:12:30</v>
+        <v>2023-03-09 18:16:31</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
@@ -6582,7 +6592,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
@@ -6594,25 +6604,25 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>09</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-03-20 21:58:11',2,sec_to_time(76)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno10'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10'),'2023-02-08 19:31:17',1,sec_to_time(30)),</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -6625,17 +6635,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno10')</v>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E49" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-20 21:58:11</v>
+        <v>2023-02-08 19:31:17</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
@@ -6643,29 +6653,29 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>08</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-03-10 14:39:59',0,sec_to_time(59)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno11'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11'),'2023-02-19 11:32:25',1,sec_to_time(50)),</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -6678,17 +6688,17 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno11')</v>
       </c>
-      <c r="E50" s="4" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-03-10 14:39:59</v>
+        <v>2023-02-19 11:32:25</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
@@ -6696,29 +6706,29 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-01-18 10:21:26',3,sec_to_time(36)),</v>
+        <v>((select id_usuario from usuario where nombre_usuario='Alumno12'),(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12'),'2023-01-04 16:48:15',3,sec_to_time(76)),</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -6731,9 +6741,9 @@
         <f t="shared" si="3"/>
         <v>(select id_reto from reto inner join persona on nivel = curso inner join usuario using (id_usuario) where nombre_reto = 'RestoDiv' and nombre_usuario = 'Alumno12')</v>
       </c>
-      <c r="E51" s="4" t="str">
+      <c r="E51" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2023-01-18 10:21:26</v>
+        <v>2023-01-04 16:48:15</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="5"/>
@@ -6741,7 +6751,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="7"/>
@@ -6753,23 +6763,20 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>04</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
